--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111873.8856602109</v>
+        <v>-114575.5335627459</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,52 +674,52 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
+        <v>145.1986582043251</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="W2" t="n">
-        <v>145.1986582043251</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.1960163205676</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>130.4949840230017</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>52.10659845039948</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>99.87546159330307</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>133.6926787005296</v>
       </c>
       <c r="H6" t="n">
-        <v>66.45772881660805</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>49.2536028488279</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.013305673653</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.4419846008365</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>225.6012771342523</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>411.830884450382</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731851</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731748</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
         <v>251.0679046626562</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>79.10474321197134</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436603</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282938</v>
+        <v>30.34503645282979</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>234.7663161321414</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>25.83978495499127</v>
       </c>
       <c r="C10" t="n">
-        <v>110.1055910689867</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099057</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930954</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>20.96124844386766</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>240.1044458298882</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1467,7 +1467,7 @@
         <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.5089280640916</v>
       </c>
       <c r="E13" t="n">
-        <v>38.53234113572697</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1585,13 +1585,13 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699844</v>
       </c>
       <c r="E16" t="n">
-        <v>140.1230996349914</v>
+        <v>146.4339626465663</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701375</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>278.2848243242767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983388</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>279.4833868130138</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>67.4354900363529</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141544</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>100.9884800080865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699816</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>240.7004451355346</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>187.4608242120713</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>137.7610225486946</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>20.88994825141653</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.385206357344</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.20606459030805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6324680438216137</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.43549003635381</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.017252331295</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C2" t="n">
-        <v>414.017252331295</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148101</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="E2" t="n">
-        <v>224.5974673148101</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656067</v>
+        <v>174.8974928666219</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>161.6673582908057</v>
       </c>
       <c r="H2" t="n">
         <v>15.0020469733056</v>
@@ -4328,52 +4328,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487952</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>414.017252331295</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X2" t="n">
-        <v>414.017252331295</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y2" t="n">
-        <v>414.017252331295</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.5366049464206</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464206</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264284</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264284</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264284</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264284</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099435</v>
+        <v>336.2349471645396</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099435</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="X3" t="n">
-        <v>298.0982375934586</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.0982375934586</v>
+        <v>146.8151621480548</v>
       </c>
     </row>
     <row r="4">
@@ -4492,46 +4492,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.127537179187</v>
+        <v>422.3390791561948</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.127537179187</v>
+        <v>422.3390791561948</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.127537179187</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3392845809428</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4598,19 +4598,19 @@
         <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>1826.151173794699</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V5" t="n">
-        <v>1826.151173794699</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="W5" t="n">
-        <v>1725.266869154999</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="X5" t="n">
-        <v>1725.266869154999</v>
+        <v>1199.078251196128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335.127537179187</v>
+        <v>808.9389192203166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>727.5992515893495</v>
+        <v>327.3467159978591</v>
       </c>
       <c r="C6" t="n">
-        <v>553.1462223082225</v>
+        <v>327.3467159978591</v>
       </c>
       <c r="D6" t="n">
-        <v>553.1462223082225</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="E6" t="n">
-        <v>393.908767302767</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="F6" t="n">
-        <v>247.374209329652</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="G6" t="n">
-        <v>110.4982155447679</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
         <v>43.36919653809306</v>
@@ -4671,25 +4671,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1539.52797744664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1311.426387579904</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V6" t="n">
-        <v>1311.426387579904</v>
+        <v>1165.411208716615</v>
       </c>
       <c r="W6" t="n">
-        <v>1311.426387579904</v>
+        <v>911.1738519884138</v>
       </c>
       <c r="X6" t="n">
-        <v>1103.574887374371</v>
+        <v>703.322351782881</v>
       </c>
       <c r="Y6" t="n">
-        <v>895.8145886094176</v>
+        <v>495.5620530179271</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.12031052680811</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>93.12031052680811</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
         <v>43.36919653809306</v>
@@ -4750,25 +4750,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>321.1098614248255</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>321.1098614248255</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>321.1098614248255</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>321.1098614248255</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W7" t="n">
-        <v>321.1098614248255</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>93.12031052680811</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.12031052680811</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.23689334233343</v>
+        <v>1422.385590843286</v>
       </c>
       <c r="C8" t="n">
-        <v>63.23689334233343</v>
+        <v>1053.423073902874</v>
       </c>
       <c r="D8" t="n">
-        <v>63.23689334233343</v>
+        <v>695.1573752961235</v>
       </c>
       <c r="E8" t="n">
-        <v>63.23689334233343</v>
+        <v>467.2772973827373</v>
       </c>
       <c r="F8" t="n">
-        <v>56.29139259312996</v>
+        <v>460.3317966335338</v>
       </c>
       <c r="G8" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420305</v>
+        <v>156.8280559420296</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002255</v>
+        <v>376.1555054002229</v>
       </c>
       <c r="L8" t="n">
-        <v>685.152362570796</v>
+        <v>685.1523625707916</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937553</v>
+        <v>1060.640340937546</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733712</v>
+        <v>1446.817915733703</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659515</v>
+        <v>1798.139187659504</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.48276428434</v>
+        <v>2063.482764284327</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228523</v>
+        <v>2214.57199322851</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970539</v>
+        <v>2217.050212970524</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.832821179443</v>
+        <v>2217.050212970524</v>
       </c>
       <c r="T8" t="n">
-        <v>1875.835030499468</v>
+        <v>2007.052422290549</v>
       </c>
       <c r="U8" t="n">
-        <v>1622.231086395775</v>
+        <v>1753.448478186856</v>
       </c>
       <c r="V8" t="n">
-        <v>1291.168199052204</v>
+        <v>1422.385590843286</v>
       </c>
       <c r="W8" t="n">
-        <v>938.3995437820902</v>
+        <v>1422.385590843286</v>
       </c>
       <c r="X8" t="n">
-        <v>564.9337855210103</v>
+        <v>1422.385590843286</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.7944535451986</v>
+        <v>1422.385590843286</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782.2894269785602</v>
+        <v>273.179194942855</v>
       </c>
       <c r="C9" t="n">
-        <v>607.8363976974332</v>
+        <v>193.2754139206617</v>
       </c>
       <c r="D9" t="n">
-        <v>458.9019880361819</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9019880361819</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3674300630669</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904268</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="H9" t="n">
-        <v>80.2656106880368</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113553</v>
+        <v>92.51967467113462</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154171</v>
+        <v>253.0195209154152</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572558</v>
+        <v>515.1539122572525</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449761</v>
+        <v>840.4092510449711</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738688</v>
+        <v>1188.681775738682</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074218</v>
+        <v>1485.063300074209</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566948</v>
+        <v>1703.602536566938</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257646</v>
+        <v>1799.771032257635</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285091</v>
+        <v>1769.11948028508</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058094</v>
+        <v>1769.11948028508</v>
       </c>
       <c r="T9" t="n">
-        <v>1630.554864058094</v>
+        <v>1574.495968838232</v>
       </c>
       <c r="U9" t="n">
-        <v>1630.554864058094</v>
+        <v>1346.395795893354</v>
       </c>
       <c r="V9" t="n">
-        <v>1395.402755826351</v>
+        <v>1111.243687661611</v>
       </c>
       <c r="W9" t="n">
-        <v>1158.265062763582</v>
+        <v>857.0063309334098</v>
       </c>
       <c r="X9" t="n">
-        <v>1158.265062763582</v>
+        <v>649.154830727877</v>
       </c>
       <c r="Y9" t="n">
-        <v>950.5047639986283</v>
+        <v>441.3945319629231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.558773015963</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="C10" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="D10" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941077</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016788</v>
+        <v>95.74470838016694</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810369</v>
+        <v>191.4295496810351</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422671</v>
+        <v>295.5740818422645</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091262</v>
+        <v>405.0998157091228</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712747</v>
+        <v>485.9514692712704</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139759</v>
+        <v>536.072055313971</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139759</v>
+        <v>514.76108490893</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139759</v>
+        <v>514.76108490893</v>
       </c>
       <c r="S10" t="n">
-        <v>337.2072378462027</v>
+        <v>514.76108490893</v>
       </c>
       <c r="T10" t="n">
-        <v>337.2072378462027</v>
+        <v>291.2343762867702</v>
       </c>
       <c r="U10" t="n">
-        <v>337.2072378462027</v>
+        <v>291.2343762867702</v>
       </c>
       <c r="V10" t="n">
-        <v>337.2072378462027</v>
+        <v>291.2343762867702</v>
       </c>
       <c r="W10" t="n">
-        <v>337.2072378462027</v>
+        <v>291.2343762867702</v>
       </c>
       <c r="X10" t="n">
-        <v>337.2072378462027</v>
+        <v>291.2343762867702</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.2072378462027</v>
+        <v>70.44179714324005</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1585.374274584227</v>
+        <v>1872.090169197691</v>
       </c>
       <c r="C11" t="n">
-        <v>1216.411757643815</v>
+        <v>1503.127652257279</v>
       </c>
       <c r="D11" t="n">
-        <v>1216.411757643815</v>
+        <v>1144.861953650529</v>
       </c>
       <c r="E11" t="n">
-        <v>830.6235050455712</v>
+        <v>759.0737010522844</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>759.0737010522843</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>344.4579364934297</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706888</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656953</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535293</v>
+        <v>3033.988513535294</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464057</v>
+        <v>3789.749829464058</v>
       </c>
       <c r="R11" t="n">
         <v>3876.883295796033</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796033</v>
+        <v>3776.999350345374</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377397</v>
+        <v>3573.020743926739</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498925</v>
+        <v>3319.526802048267</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155354</v>
+        <v>2988.463914704696</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.57920488524</v>
+        <v>2635.695259434582</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.11344662416</v>
+        <v>2262.229501173502</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.974114648348</v>
+        <v>1872.090169197691</v>
       </c>
     </row>
     <row r="12">
@@ -5103,34 +5103,34 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>193.841091987041</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="L12" t="n">
-        <v>612.5381326449921</v>
+        <v>612.5381326449924</v>
       </c>
       <c r="M12" t="n">
         <v>1120.49469860152</v>
       </c>
       <c r="N12" t="n">
-        <v>1532.266717861146</v>
+        <v>1656.30400830273</v>
       </c>
       <c r="O12" t="n">
         <v>2000.207762193669</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>747.4058816492629</v>
+        <v>184.1123407281344</v>
       </c>
       <c r="C13" t="n">
-        <v>578.4696987213561</v>
+        <v>184.1123407281343</v>
       </c>
       <c r="D13" t="n">
-        <v>428.3530593090202</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344799</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2056.743466925582</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276102</v>
+        <v>1868.627619458878</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710542</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659993</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1439.264095659993</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>1149.846925623033</v>
+        <v>814.5429355999215</v>
       </c>
       <c r="X13" t="n">
-        <v>1149.846925623033</v>
+        <v>586.5533847019042</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.0543464795027</v>
+        <v>365.760805558374</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797193</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M15" t="n">
-        <v>691.195150674524</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.4026036630122</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>776.4664207351053</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3497813227696</v>
+        <v>241.7297566303621</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580268</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580268</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.36161860321</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947408</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741521</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.18473370456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806542</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630122</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718716</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279812</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358027</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832673</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487577</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510518</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.365298364784</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1441.680810158897</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1152.263640121936</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5759,40 +5759,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961527</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622705</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038345</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.154629184233</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6075,7 +6075,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>917.5010142286968</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>748.5648313007899</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>598.4481918884542</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>450.5350983060611</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>303.6451508081507</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6309,10 +6309,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036841</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,19 +6385,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,10 +6479,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.9555321712451</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0193492433382</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.6039970014848</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851667</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572598</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>344.917417812165</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>197.0043242297719</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>197.0043242297719</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154064</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,7 +7172,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,19 +7251,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424038</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300681</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,16 +7330,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7388,58 +7388,58 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2546.729326731942</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532262</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7579,10 +7579,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,13 +7679,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7725,19 +7725,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>917.501014228697</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>748.5648313007902</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>598.4481918884544</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>450.5350983060614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>303.6451508081511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>303.6451508081511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9333196503492</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>385.9147972978438</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.87305750948656</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.10654495412074</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9016215108422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844822794</v>
       </c>
       <c r="E16" t="n">
-        <v>6.310863011577766</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392964</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>7.899650064967489</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393004</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>6.70108757623035</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>98.08864825591594</v>
+        <v>62.35543909864899</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667969</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>151.1491633157415</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>11.43719818829345</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864873</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>29.94462611521692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>10.85445046951773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>144.6341900408523</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922517</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>176.3785887617867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>251.5051752800064</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>13.83034628221185</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1104896.508706817</v>
+        <v>1104896.508706816</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>293035.6977097582</v>
+        <v>293035.6977097584</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760024</v>
@@ -26338,16 +26338,16 @@
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="L2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="L2" t="n">
-        <v>322858.6398760023</v>
-      </c>
       <c r="M2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760022</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
@@ -26366,16 +26366,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861774</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264449</v>
+        <v>12262.85603264076</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674469</v>
+        <v>395943.956767451</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704305</v>
+        <v>189308.2687704298</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854464</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487766</v>
+        <v>91259.95686487771</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349950341</v>
+        <v>3074.447349949425</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931111</v>
+        <v>103409.260893112</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202402</v>
+        <v>49839.57413202388</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607414</v>
+        <v>170817.8827607424</v>
       </c>
       <c r="E4" t="n">
         <v>15941.16541224543</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="L4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="P4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189198</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16046.58397189199</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404181</v>
+        <v>86153.75444404154</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673856</v>
+        <v>85137.48506738561</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-598462.5598208756</v>
       </c>
       <c r="C6" t="n">
-        <v>-323495.6082852341</v>
+        <v>-323495.6082852342</v>
       </c>
       <c r="D6" t="n">
-        <v>59182.2147082857</v>
+        <v>59182.21470828862</v>
       </c>
       <c r="E6" t="n">
-        <v>-203986.9095373197</v>
+        <v>-204208.0408512983</v>
       </c>
       <c r="F6" t="n">
-        <v>16381.25730977296</v>
+        <v>16346.51938433788</v>
       </c>
       <c r="G6" t="n">
-        <v>205689.5260802033</v>
+        <v>205654.7881547677</v>
       </c>
       <c r="H6" t="n">
-        <v>205689.5260802035</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="I6" t="n">
-        <v>205689.5260802036</v>
+        <v>205654.7881547678</v>
       </c>
       <c r="J6" t="n">
-        <v>156624.5813516587</v>
+        <v>156589.843426223</v>
       </c>
       <c r="K6" t="n">
-        <v>114429.5692153256</v>
+        <v>114394.8312898897</v>
       </c>
       <c r="L6" t="n">
-        <v>202615.0787302529</v>
+        <v>202580.3408048181</v>
       </c>
       <c r="M6" t="n">
-        <v>102280.2651870921</v>
+        <v>102245.5272616556</v>
       </c>
       <c r="N6" t="n">
-        <v>155849.9519481794</v>
+        <v>155815.2140227435</v>
       </c>
       <c r="O6" t="n">
-        <v>205689.5260802034</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="P6" t="n">
-        <v>205689.5260802032</v>
+        <v>205654.7881547675</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.482815996219201e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573227</v>
+        <v>863.6234498573197</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,19 +26793,19 @@
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426347</v>
+        <v>554.262553242631</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490081</v>
+        <v>969.2208239490083</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319638575</v>
+        <v>9.912785319635532</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576268</v>
+        <v>338.6177873576303</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267247</v>
+        <v>165.734263126724</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,19 +27015,19 @@
         <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651647148</v>
+        <v>12.14759651646786</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063735</v>
+        <v>414.9582707063772</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647171</v>
+        <v>12.14759651646809</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063735</v>
+        <v>414.9582707063772</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,13 +27261,13 @@
         <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647148</v>
+        <v>12.14759651646786</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063735</v>
+        <v>414.9582707063772</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>171.6951679018973</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27436,10 +27436,10 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>204.0423105130879</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.33716732929972</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>16.95008154163705</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27479,7 +27479,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275028</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>302.5764431702835</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>249.3655071241099</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.814555146505683</v>
       </c>
       <c r="H6" t="n">
-        <v>28.04308444524709</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>36.29946757904885</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>99.36187016938445</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,7 +27822,7 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
@@ -27831,13 +27831,13 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.50969266293805</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>272.2918570626441</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>156.3290929380094</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163649</v>
+        <v>303.9186869163651</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151369</v>
+        <v>76.62727429151417</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>93.6037557763444</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436611</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433999</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,22 +27980,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323793</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>16.92866702877819</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>153.992195226946</v>
       </c>
       <c r="C10" t="n">
-        <v>57.14123002964114</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332402</v>
+        <v>16.8905104633244</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099011</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.269103131361</v>
+        <v>107.2691031313613</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340827876525</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.625353725641618e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>7.673861546209082e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-2.588649294921197e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>9.094947017729282e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753053</v>
+        <v>3.471853064753041</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940222</v>
+        <v>35.55611519940209</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788922</v>
+        <v>133.8486152788917</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545848</v>
+        <v>294.6691890545837</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855816</v>
+        <v>441.63272928558</v>
       </c>
       <c r="L8" t="n">
-        <v>547.884452516018</v>
+        <v>547.884452516016</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563201</v>
+        <v>609.6270194563178</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765498</v>
+        <v>619.4914219765475</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639115</v>
+        <v>584.9681830639095</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278204</v>
+        <v>499.2568105278186</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463515</v>
+        <v>374.9210726463502</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787942</v>
+        <v>218.0887900787934</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306029</v>
+        <v>79.11485171306001</v>
       </c>
       <c r="T8" t="n">
-        <v>15.1980367909565</v>
+        <v>15.19803679095645</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802442</v>
+        <v>0.2777482451802432</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296883</v>
+        <v>1.857605156296876</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213043</v>
+        <v>17.94055506213036</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566023</v>
+        <v>63.95701963566</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148735</v>
+        <v>175.5029503148729</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867646</v>
+        <v>299.9624957867636</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564789</v>
+        <v>403.3365932564775</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722408</v>
+        <v>470.6747801722391</v>
       </c>
       <c r="N9" t="n">
-        <v>483.132141066881</v>
+        <v>483.1321410668793</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510395</v>
+        <v>441.9715215510379</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423408</v>
+        <v>354.7211109423395</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230898</v>
+        <v>237.121668723089</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111346</v>
+        <v>115.3344675111342</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911094</v>
+        <v>34.50420103911082</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442258</v>
+        <v>7.487452362442231</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458476</v>
+        <v>0.1222108655458472</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037795</v>
+        <v>1.557353762037789</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066331</v>
+        <v>13.84629072066326</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291843</v>
+        <v>46.83387495291826</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760721</v>
+        <v>110.1049109760717</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258456</v>
+        <v>180.9361916258449</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306009</v>
+        <v>231.5360311306001</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801609</v>
+        <v>244.12228108016</v>
       </c>
       <c r="N10" t="n">
-        <v>238.317598876202</v>
+        <v>238.3175988762011</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833059</v>
+        <v>220.1248753833051</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377347</v>
+        <v>188.354858637734</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284557</v>
+        <v>130.4071409284553</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580846</v>
+        <v>70.02428824580822</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387684</v>
+        <v>27.14042874387674</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343304</v>
+        <v>6.65414789234328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842527</v>
+        <v>0.08494656883842497</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
         <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747743</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>547.2730446688148</v>
+        <v>672.5632370340502</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>489.9737736272109</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
         <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473722</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832319</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>270.9716933356893</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32339,7 +32339,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>528.6300513467547</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>270.9716933356906</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,28 +33260,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>650.5350891770659</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,13 +33740,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,10 +34217,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>152.0754244981388</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>186.6878763515707</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278985</v>
+        <v>113.6232845278974</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406011</v>
+        <v>221.5428782405995</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460307</v>
+        <v>312.1180375460288</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290474</v>
+        <v>379.2807862290451</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799588</v>
+        <v>390.0783583799566</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422248</v>
+        <v>354.8699716422227</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725509</v>
+        <v>268.0238147725491</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719021</v>
+        <v>152.6153827719008</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264662081</v>
+        <v>2.503252264661285</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820682</v>
+        <v>48.6653236482062</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124056</v>
+        <v>162.1210568124046</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766047</v>
+        <v>264.7822134766033</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502225</v>
+        <v>328.5407462502208</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835477</v>
+        <v>351.790428983546</v>
       </c>
       <c r="O9" t="n">
-        <v>299.375277106595</v>
+        <v>299.3752771065935</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280105</v>
+        <v>220.7467035280093</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706832</v>
+        <v>97.1398946370675</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345531021</v>
+        <v>51.92293345530956</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936263</v>
+        <v>96.65135484936181</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325558</v>
+        <v>105.1964971325549</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109688</v>
+        <v>110.632054410968</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146307</v>
+        <v>81.66833693146228</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858707</v>
+        <v>50.62685458858641</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949001</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>415.9313325854815</v>
+        <v>541.2215249507169</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>347.3775291827665</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655334</v>
+        <v>14.87641069655339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998987</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899152</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>132.4173135558151</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,10 +36051,10 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060546</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>397.2883392634214</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>235.5010321525773</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>132.4173135558164</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36908,28 +36908,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>519.1933770937326</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>6.39592053417488</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>44.0916319071262</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
